--- a/out.xlsx
+++ b/out.xlsx
@@ -402,10 +402,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>201.003</v>
+        <v>138.229</v>
       </c>
       <c r="C2">
-        <v>191.639</v>
+        <v>104.856</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -416,10 +416,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>176.033</v>
+        <v>176.226</v>
       </c>
       <c r="C3">
-        <v>180.915</v>
+        <v>106.828</v>
       </c>
       <c r="D3">
         <v>0.3333333333333333</v>
@@ -430,10 +430,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>178.077</v>
+        <v>148.673</v>
       </c>
       <c r="C4">
-        <v>190.79</v>
+        <v>97.422</v>
       </c>
       <c r="D4">
         <v>0.6666666666666666</v>
@@ -444,10 +444,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>177.254</v>
+        <v>151.209</v>
       </c>
       <c r="C5">
-        <v>183.417</v>
+        <v>97.517</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -458,10 +458,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>178.965</v>
+        <v>165.748</v>
       </c>
       <c r="C6">
-        <v>191.62</v>
+        <v>97.354</v>
       </c>
       <c r="D6">
         <v>1.333333333333333</v>
@@ -472,10 +472,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>177.61</v>
+        <v>158.224</v>
       </c>
       <c r="C7">
-        <v>184.795</v>
+        <v>99.014</v>
       </c>
       <c r="D7">
         <v>1.666666666666667</v>
@@ -486,10 +486,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>185.743</v>
+        <v>158.823</v>
       </c>
       <c r="C8">
-        <v>190.525</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -500,10 +500,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>186.216</v>
+        <v>163.031</v>
       </c>
       <c r="C9">
-        <v>193.297</v>
+        <v>100.299</v>
       </c>
       <c r="D9">
         <v>2.333333333333333</v>
@@ -514,10 +514,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>178.945</v>
+        <v>168.358</v>
       </c>
       <c r="C10">
-        <v>190.238</v>
+        <v>101.433</v>
       </c>
       <c r="D10">
         <v>2.666666666666667</v>
@@ -528,10 +528,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>182.904</v>
+        <v>169.252</v>
       </c>
       <c r="C11">
-        <v>192.299</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>185.729</v>
+        <v>201.534</v>
       </c>
       <c r="C12">
-        <v>193.662</v>
+        <v>111.604</v>
       </c>
       <c r="D12">
         <v>3.333333333333333</v>
@@ -556,10 +556,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>181.219</v>
+        <v>165.107</v>
       </c>
       <c r="C13">
-        <v>191.611</v>
+        <v>99.98099999999999</v>
       </c>
       <c r="D13">
         <v>3.666666666666667</v>
@@ -570,10 +570,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>181.97</v>
+        <v>202.19</v>
       </c>
       <c r="C14">
-        <v>194.719</v>
+        <v>108.59</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -584,10 +584,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>188.051</v>
+        <v>197.462</v>
       </c>
       <c r="C15">
-        <v>197.885</v>
+        <v>104.788</v>
       </c>
       <c r="D15">
         <v>4.333333333333333</v>
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>202.787</v>
+        <v>186.974</v>
       </c>
       <c r="C16">
-        <v>205.536</v>
+        <v>101.583</v>
       </c>
       <c r="D16">
         <v>4.666666666666667</v>
@@ -612,10 +612,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>207.369</v>
+        <v>184.785</v>
       </c>
       <c r="C17">
-        <v>208.638</v>
+        <v>103.096</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>192.049</v>
+        <v>218.546</v>
       </c>
       <c r="C18">
-        <v>193.318</v>
+        <v>110.176</v>
       </c>
       <c r="D18">
         <v>5.333333333333333</v>
@@ -640,10 +640,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>186.766</v>
+        <v>213.435</v>
       </c>
       <c r="C19">
-        <v>199.733</v>
+        <v>109.607</v>
       </c>
       <c r="D19">
         <v>5.666666666666667</v>
@@ -654,10 +654,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>188.914</v>
+        <v>216.573</v>
       </c>
       <c r="C20">
-        <v>203.629</v>
+        <v>108.937</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -668,10 +668,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>191.542</v>
+        <v>214.434</v>
       </c>
       <c r="C21">
-        <v>201.002</v>
+        <v>111.977</v>
       </c>
       <c r="D21">
         <v>6.333333333333333</v>
@@ -682,10 +682,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>187.257</v>
+        <v>223.806</v>
       </c>
       <c r="C22">
-        <v>202.03</v>
+        <v>115.364</v>
       </c>
       <c r="D22">
         <v>6.666666666666667</v>
@@ -696,10 +696,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>193.269</v>
+        <v>205.15</v>
       </c>
       <c r="C23">
-        <v>202.173</v>
+        <v>105.755</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -710,10 +710,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>193.282</v>
+        <v>221.441</v>
       </c>
       <c r="C24">
-        <v>202.879</v>
+        <v>106.266</v>
       </c>
       <c r="D24">
         <v>7.333333333333333</v>
@@ -724,10 +724,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>190.377</v>
+        <v>217.847</v>
       </c>
       <c r="C25">
-        <v>203.271</v>
+        <v>110.015</v>
       </c>
       <c r="D25">
         <v>7.666666666666667</v>
@@ -738,10 +738,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>194.707</v>
+        <v>185.375</v>
       </c>
       <c r="C26">
-        <v>200.755</v>
+        <v>101.358</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -752,10 +752,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>195.676</v>
+        <v>188.871</v>
       </c>
       <c r="C27">
-        <v>211.417</v>
+        <v>107.181</v>
       </c>
       <c r="D27">
         <v>8.333333333333334</v>
@@ -766,10 +766,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>196.216</v>
+        <v>195.081</v>
       </c>
       <c r="C28">
-        <v>207.333</v>
+        <v>103.069</v>
       </c>
       <c r="D28">
         <v>8.666666666666666</v>
@@ -780,10 +780,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>194.727</v>
+        <v>202.812</v>
       </c>
       <c r="C29">
-        <v>211.61</v>
+        <v>110.418</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -794,10 +794,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>196.757</v>
+        <v>215.424</v>
       </c>
       <c r="C30">
-        <v>211.911</v>
+        <v>108.904</v>
       </c>
       <c r="D30">
         <v>9.333333333333334</v>
@@ -808,10 +808,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>197.275</v>
+        <v>192.29</v>
       </c>
       <c r="C31">
-        <v>210.232</v>
+        <v>103.271</v>
       </c>
       <c r="D31">
         <v>9.666666666666666</v>
@@ -822,10 +822,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>194.129</v>
+        <v>189.572</v>
       </c>
       <c r="C32">
-        <v>207.621</v>
+        <v>100.884</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -836,10 +836,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>225.076</v>
+        <v>195.524</v>
       </c>
       <c r="C33">
-        <v>226.598</v>
+        <v>104.305</v>
       </c>
       <c r="D33">
         <v>10.33333333333333</v>
@@ -850,10 +850,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>220.407</v>
+        <v>197.538</v>
       </c>
       <c r="C34">
-        <v>224.83</v>
+        <v>106.533</v>
       </c>
       <c r="D34">
         <v>10.66666666666667</v>
@@ -864,10 +864,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>208.096</v>
+        <v>197.03</v>
       </c>
       <c r="C35">
-        <v>215.87</v>
+        <v>108.18</v>
       </c>
       <c r="D35">
         <v>11</v>
@@ -878,10 +878,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>203.95</v>
+        <v>194.575</v>
       </c>
       <c r="C36">
-        <v>213.963</v>
+        <v>102.435</v>
       </c>
       <c r="D36">
         <v>11.33333333333333</v>
@@ -892,10 +892,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>197.591</v>
+        <v>197.248</v>
       </c>
       <c r="C37">
-        <v>213.835</v>
+        <v>102.034</v>
       </c>
       <c r="D37">
         <v>11.66666666666667</v>
@@ -906,10 +906,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>206.993</v>
+        <v>195.879</v>
       </c>
       <c r="C38">
-        <v>216.477</v>
+        <v>107.256</v>
       </c>
       <c r="D38">
         <v>12</v>
@@ -920,10 +920,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>210.651</v>
+        <v>197.452</v>
       </c>
       <c r="C39">
-        <v>220.25</v>
+        <v>106.607</v>
       </c>
       <c r="D39">
         <v>12.33333333333333</v>
@@ -934,10 +934,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>228.99</v>
+        <v>198.399</v>
       </c>
       <c r="C40">
-        <v>231.271</v>
+        <v>110.064</v>
       </c>
       <c r="D40">
         <v>12.66666666666667</v>
@@ -948,10 +948,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>202.657</v>
+        <v>194.683</v>
       </c>
       <c r="C41">
-        <v>219.981</v>
+        <v>115.929</v>
       </c>
       <c r="D41">
         <v>13</v>
@@ -962,10 +962,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>208.875</v>
+        <v>199.806</v>
       </c>
       <c r="C42">
-        <v>218.656</v>
+        <v>104.145</v>
       </c>
       <c r="D42">
         <v>13.33333333333333</v>
@@ -976,10 +976,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>205.184</v>
+        <v>202.594</v>
       </c>
       <c r="C43">
-        <v>222.839</v>
+        <v>105.443</v>
       </c>
       <c r="D43">
         <v>13.66666666666667</v>
@@ -990,10 +990,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>197.586</v>
+        <v>198.758</v>
       </c>
       <c r="C44">
-        <v>212.747</v>
+        <v>103.796</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -1004,10 +1004,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>232.788</v>
+        <v>206.98</v>
       </c>
       <c r="C45">
-        <v>232.71</v>
+        <v>107.959</v>
       </c>
       <c r="D45">
         <v>14.33333333333333</v>
@@ -1018,10 +1018,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>207.091</v>
+        <v>210.381</v>
       </c>
       <c r="C46">
-        <v>223.652</v>
+        <v>108.033</v>
       </c>
       <c r="D46">
         <v>14.66666666666667</v>
@@ -1032,10 +1032,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>212.958</v>
+        <v>195.838</v>
       </c>
       <c r="C47">
-        <v>226.832</v>
+        <v>104.704</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -1046,10 +1046,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>207.632</v>
+        <v>207.7</v>
       </c>
       <c r="C48">
-        <v>225.148</v>
+        <v>108.717</v>
       </c>
       <c r="D48">
         <v>15.33333333333333</v>
@@ -1060,10 +1060,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>210.74</v>
+        <v>204.561</v>
       </c>
       <c r="C49">
-        <v>223.939</v>
+        <v>108.591</v>
       </c>
       <c r="D49">
         <v>15.66666666666667</v>
@@ -1074,10 +1074,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>208.046</v>
+        <v>214.192</v>
       </c>
       <c r="C50">
-        <v>226.399</v>
+        <v>105.974</v>
       </c>
       <c r="D50">
         <v>16</v>
@@ -1088,10 +1088,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>213.539</v>
+        <v>205.943</v>
       </c>
       <c r="C51">
-        <v>220.762</v>
+        <v>108.475</v>
       </c>
       <c r="D51">
         <v>16.33333333333333</v>
@@ -1102,10 +1102,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>212.742</v>
+        <v>204.608</v>
       </c>
       <c r="C52">
-        <v>228.605</v>
+        <v>110.698</v>
       </c>
       <c r="D52">
         <v>16.66666666666667</v>
@@ -1116,10 +1116,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>213.3</v>
+        <v>213.298</v>
       </c>
       <c r="C53">
-        <v>227.872</v>
+        <v>110.615</v>
       </c>
       <c r="D53">
         <v>17</v>
@@ -1130,10 +1130,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>208.421</v>
+        <v>206.547</v>
       </c>
       <c r="C54">
-        <v>226.349</v>
+        <v>104.16</v>
       </c>
       <c r="D54">
         <v>17.33333333333333</v>
@@ -1144,10 +1144,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>212.236</v>
+        <v>206.866</v>
       </c>
       <c r="C55">
-        <v>222.42</v>
+        <v>108.559</v>
       </c>
       <c r="D55">
         <v>17.66666666666667</v>
@@ -1158,10 +1158,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>215.47</v>
+        <v>210.224</v>
       </c>
       <c r="C56">
-        <v>231.814</v>
+        <v>107.245</v>
       </c>
       <c r="D56">
         <v>18</v>
@@ -1172,10 +1172,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>217.703</v>
+        <v>205.451</v>
       </c>
       <c r="C57">
-        <v>225.16</v>
+        <v>113.47</v>
       </c>
       <c r="D57">
         <v>18.33333333333333</v>
@@ -1186,10 +1186,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>215.056</v>
+        <v>206.065</v>
       </c>
       <c r="C58">
-        <v>236.419</v>
+        <v>107.846</v>
       </c>
       <c r="D58">
         <v>18.66666666666667</v>
@@ -1200,10 +1200,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>212.377</v>
+        <v>212.693</v>
       </c>
       <c r="C59">
-        <v>227.628</v>
+        <v>108.555</v>
       </c>
       <c r="D59">
         <v>19</v>
@@ -1214,10 +1214,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>216.246</v>
+        <v>216.226</v>
       </c>
       <c r="C60">
-        <v>223.668</v>
+        <v>109.244</v>
       </c>
       <c r="D60">
         <v>19.33333333333333</v>
@@ -1228,10 +1228,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>214.491</v>
+        <v>213.946</v>
       </c>
       <c r="C61">
-        <v>224.03</v>
+        <v>110.519</v>
       </c>
       <c r="D61">
         <v>19.66666666666667</v>
@@ -1242,10 +1242,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>216.764</v>
+        <v>215.844</v>
       </c>
       <c r="C62">
-        <v>237.554</v>
+        <v>112.406</v>
       </c>
       <c r="D62">
         <v>20</v>
